--- a/cma_9600_3_1.xlsx
+++ b/cma_9600_3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CA63A4-F4B8-E44E-B4E1-B5153C875B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D003C1-B9F3-334A-A0CE-52A857FE8AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,25 +41,25 @@
     <t>Decode Count</t>
   </si>
   <si>
-    <t>Track 1, 16000 Hz, 7 Taps, interval 3</t>
-  </si>
-  <si>
-    <t>Track 2, 16000 Hz, 7 Taps, interval 3</t>
-  </si>
-  <si>
     <t>dB</t>
-  </si>
-  <si>
-    <t>Equalized AWGN, 16000 Hz, 7 Taps, interval 3. 0.02dB SNR per packet</t>
-  </si>
-  <si>
-    <t>De-Emphasized AWGN, 16000 Hz, 7 Taps, interval 3. 0.02 SNR per packet</t>
   </si>
   <si>
     <t xml:space="preserve">Decode Count </t>
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>Track 1, 16000 Hz</t>
+  </si>
+  <si>
+    <t>Track 2, 16000 Hz</t>
+  </si>
+  <si>
+    <t>Equalized AWGN, 16000 Hz, 0.02dB SNR per packet</t>
+  </si>
+  <si>
+    <t>De-Emphasized AWGN, 16000 Hz, 0.02 dB SNR per packet</t>
   </si>
 </sst>
 </file>
@@ -8297,30 +8297,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B20BF-DD24-9B45-85EB-8DC1C87F0292}">
   <dimension ref="B1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="J252" sqref="J152:J252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -8345,16 +8345,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">

--- a/cma_9600_3_1.xlsx
+++ b/cma_9600_3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D003C1-B9F3-334A-A0CE-52A857FE8AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9C5B3-35BB-B245-933D-72DD52CEDA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,16 +50,16 @@
     <t>db</t>
   </si>
   <si>
-    <t>Track 1, 16000 Hz</t>
+    <t>Track 1</t>
   </si>
   <si>
-    <t>Track 2, 16000 Hz</t>
+    <t>Track 2</t>
   </si>
   <si>
-    <t>Equalized AWGN, 16000 Hz, 0.02dB SNR per packet</t>
+    <t>Equalized AWGN, 0.02dB SNR per packet</t>
   </si>
   <si>
-    <t>De-Emphasized AWGN, 16000 Hz, 0.02 dB SNR per packet</t>
+    <t>De-Emphasized AWGN, 0.02 dB SNR per packet</t>
   </si>
 </sst>
 </file>
@@ -8298,7 +8298,7 @@
   <dimension ref="B1:N252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
